--- a/data/trans_camb/P1423_2016_2023-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P1423_2016_2023-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
         <v>3.351898757729778</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-0.3618405776724815</v>
+        <v>-0.3618405776724828</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>1.528315606011016</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.541016805965577</v>
+        <v>1.308308002028319</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.03966815036258</v>
+        <v>-2.986990143840323</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.05792908212096472</v>
+        <v>-0.1455687849484435</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.704894710470001</v>
+        <v>5.735062613835689</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.077062174451069</v>
+        <v>2.093782058943875</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.230808428693535</v>
+        <v>3.284474672709155</v>
       </c>
     </row>
     <row r="7">
@@ -618,7 +618,7 @@
         <v>1.599959940062148</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.04668753542915825</v>
+        <v>-0.04668753542915843</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.3107273299484914</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.5143087135699422</v>
+        <v>0.3373907151501424</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.314412668063352</v>
+        <v>-0.309773139771285</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.02013082426700876</v>
+        <v>-0.03794247196935509</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>4.528674175116545</v>
+        <v>4.096024368146578</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.3365172094546304</v>
+        <v>0.3351456565863081</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.807651807119828</v>
+        <v>0.8087544075633887</v>
       </c>
     </row>
     <row r="10">
@@ -673,10 +673,10 @@
         <v>2.665552386333965</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>1.823063007852627</v>
+        <v>1.823063007852625</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2.238261737000784</v>
+        <v>2.238261737000783</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.439358241424892</v>
+        <v>1.309578350142586</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.05467897943079094</v>
+        <v>-0.2844176945522747</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9446670167661306</v>
+        <v>0.9630045325345039</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.186797982094094</v>
+        <v>4.166763233748746</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.836508126007204</v>
+        <v>3.89240799020451</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.482471674587392</v>
+        <v>3.545891437558701</v>
       </c>
     </row>
     <row r="13">
@@ -724,10 +724,10 @@
         <v>2.422898718332443</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.2954843549055259</v>
+        <v>0.2954843549055257</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.6115327272284289</v>
+        <v>0.6115327272284287</v>
       </c>
     </row>
     <row r="14">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.7710135239077388</v>
+        <v>0.7300486014365853</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.006502523293475241</v>
+        <v>-0.04846102066757346</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.2062222202770584</v>
+        <v>0.229379236104453</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6.039782724367452</v>
+        <v>6.427356690219824</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.787293913744389</v>
+        <v>0.7559329094192533</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.127135991392706</v>
+        <v>1.173530602261502</v>
       </c>
     </row>
     <row r="16">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>1.896616685317563</v>
+        <v>1.896616685317564</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>3.297482572906025</v>
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.003341206221144814</v>
+        <v>0.1913083340566818</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7485062334478394</v>
+        <v>0.9704838403452194</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.067644323070446</v>
+        <v>1.034419271775213</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.331548284084722</v>
+        <v>4.094562708906172</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.598297572251681</v>
+        <v>5.699674543826101</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.201670466920136</v>
+        <v>4.169166230101946</v>
       </c>
     </row>
     <row r="19">
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>0.7604918489903243</v>
+        <v>0.7604918489903245</v>
       </c>
       <c r="D19" s="6" t="n">
         <v>0.6685205877123169</v>
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.06103860315764924</v>
+        <v>-0.01880841465106241</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.09565647592945498</v>
+        <v>0.1443597937267914</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.2422765916704685</v>
+        <v>0.2320298248968443</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.364577715955283</v>
+        <v>2.300215189591845</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.457856202928015</v>
+        <v>1.543312837082066</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.395485182709826</v>
+        <v>1.407949756971696</v>
       </c>
     </row>
     <row r="22">
@@ -888,7 +888,7 @@
         <v>0.5543904921994733</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1.71908652271039</v>
+        <v>1.719086522710391</v>
       </c>
     </row>
     <row r="23">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.266365730943111</v>
+        <v>1.270977998375129</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.092980815922042</v>
+        <v>-1.931713255943971</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2286593340630638</v>
+        <v>0.1051841783238004</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.748187429799735</v>
+        <v>4.803825091727003</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.73297679719091</v>
+        <v>2.78265659178492</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.191182535709428</v>
+        <v>3.100331041837162</v>
       </c>
     </row>
     <row r="25">
@@ -939,7 +939,7 @@
         <v>0.06579900949396553</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.2983054060832998</v>
+        <v>0.2983054060833</v>
       </c>
     </row>
     <row r="26">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.3058681106678763</v>
+        <v>0.3246243893031421</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2043909736340468</v>
+        <v>-0.195468159687114</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.03617690733915339</v>
+        <v>0.01743744273477319</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.18326055609176</v>
+        <v>2.228965894842404</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3845377762419875</v>
+        <v>0.4062806953576627</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.6427164907901293</v>
+        <v>0.6526453313937598</v>
       </c>
     </row>
     <row r="28">
@@ -991,10 +991,10 @@
         <v>2.724977117688354</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>1.361436425828154</v>
+        <v>1.361436425828153</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2.039134278798833</v>
+        <v>2.03913427879883</v>
       </c>
     </row>
     <row r="29">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.819538398091522</v>
+        <v>1.863933696066095</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1481381422560347</v>
+        <v>0.2131283384441587</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.3203915129366</v>
+        <v>1.267167320068687</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.714137547533146</v>
+        <v>3.63041971586481</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.481507046386657</v>
+        <v>2.427196522230945</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.842418809344029</v>
+        <v>2.806486059370398</v>
       </c>
     </row>
     <row r="31">
@@ -1042,10 +1042,10 @@
         <v>1.310761370565879</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>0.1984595189087758</v>
+        <v>0.1984595189087756</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.4510144657149754</v>
+        <v>0.4510144657149748</v>
       </c>
     </row>
     <row r="32">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.7371004417249477</v>
+        <v>0.7587993090203295</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.02481511281811856</v>
+        <v>0.03143603110211787</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.2654050788017956</v>
+        <v>0.261637972793338</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>2.146731220943445</v>
+        <v>2.149763422569868</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.4028479597295896</v>
+        <v>0.3940239402589524</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.692904538116188</v>
+        <v>0.6872416640730296</v>
       </c>
     </row>
     <row r="34">
